--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value200.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value200.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.061421352711825</v>
+        <v>2.867074728012085</v>
       </c>
       <c r="B1">
-        <v>1.651371769071262</v>
+        <v>3.317430257797241</v>
       </c>
       <c r="C1">
-        <v>2.450836843462174</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.679455716671659</v>
+        <v>3.059309244155884</v>
       </c>
       <c r="E1">
-        <v>0.8396412970488384</v>
+        <v>2.596883058547974</v>
       </c>
     </row>
   </sheetData>
